--- a/resource/testData.xlsx
+++ b/resource/testData.xlsx
@@ -1,76 +1,80 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mugundhan\OneDrive - Garnet Technologies\SAP_Automation\resource\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15530" windowHeight="7190"/>
   </bookViews>
   <sheets>
-    <sheet name="test" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="test" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="results" state="visible" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>UserName</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>mugundhan@ithredconsulting.com</t>
-  </si>
-  <si>
-    <t>password123</t>
-  </si>
-  <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>http:\\iam.ithred.net\</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+  <si>
+    <t>TestCaseID</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>steps</t>
+  </si>
+  <si>
+    <t>TC_01</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>TC_02</t>
+  </si>
+  <si>
+    <t>da</t>
+  </si>
+  <si>
+    <t>as</t>
+  </si>
+  <si>
+    <t>TC_03</t>
+  </si>
+  <si>
+    <t>sa</t>
+  </si>
+  <si>
+    <t>TC_04</t>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -96,18 +100,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -386,43 +386,131 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.35" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="45.36328125" customWidth="1"/>
-    <col min="2" max="2" width="30.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.7265625" customWidth="1"/>
+    <col min="3" max="3" width="11.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" ht="14.5" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
+    </row>
+    <row r="3" ht="14.5" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" ht="14.5" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" ht="14.5" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.35" customHeight="1"/>
+  <sheetData>
+    <row r="1" ht="14.5" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" ht="14.5" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" ht="14.5" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" ht="14.5" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" ht="14.5" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/resource/testData.xlsx
+++ b/resource/testData.xlsx
@@ -15,42 +15,123 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
-  <si>
-    <t>TestCaseID</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>steps</t>
-  </si>
-  <si>
-    <t>TC_01</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>TC_02</t>
-  </si>
-  <si>
-    <t>da</t>
-  </si>
-  <si>
-    <t>as</t>
-  </si>
-  <si>
-    <t>TC_03</t>
-  </si>
-  <si>
-    <t>sa</t>
-  </si>
-  <si>
-    <t>TC_04</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>BuyerDiv</t>
+  </si>
+  <si>
+    <t>Order/StyleNo</t>
+  </si>
+  <si>
+    <t>Destination</t>
+  </si>
+  <si>
+    <t>ScanPoint</t>
+  </si>
+  <si>
+    <t>WeightUOM</t>
+  </si>
+  <si>
+    <t>DimensionUOM</t>
+  </si>
+  <si>
+    <t>PriceTag</t>
+  </si>
+  <si>
+    <t>PackType</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>Width</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>Thickness</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>MaxWghtPrPck</t>
+  </si>
+  <si>
+    <t>Option</t>
+  </si>
+  <si>
+    <t>RatioPc</t>
+  </si>
+  <si>
+    <t>PrePackType</t>
+  </si>
+  <si>
+    <t>PackSKU</t>
+  </si>
+  <si>
+    <t>DcCode</t>
+  </si>
+  <si>
+    <t>D15-2</t>
+  </si>
+  <si>
+    <t>GAPMT</t>
+  </si>
+  <si>
+    <t>39360 / 543204-D18282 HO24</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Single for price tag</t>
+  </si>
+  <si>
+    <t>KGS</t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>7358421</t>
+  </si>
+  <si>
+    <t>Carton</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>TestOpt321</t>
+  </si>
+  <si>
+    <t>2Pc PrePack</t>
+  </si>
+  <si>
+    <t>TESTSKU321</t>
+  </si>
+  <si>
+    <t>TestDC321</t>
   </si>
   <si>
     <t>Pass</t>
@@ -386,20 +467,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.35" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="45.36328125" customWidth="1"/>
-    <col min="2" max="2" width="30.7265625" customWidth="1"/>
-    <col min="3" max="3" width="11.90625" customWidth="1"/>
+    <col min="1" max="1" width="8.54296875" customWidth="1"/>
+    <col min="2" max="2" width="15.453125" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
+    <col min="4" max="9" width="11.453125" customWidth="1"/>
+    <col min="15" max="15" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -409,49 +492,118 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" ht="14.5" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" ht="14.5" customHeight="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" ht="14.5" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" ht="14.5" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" ht="14.5" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T2" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -472,7 +624,7 @@
   <sheetData>
     <row r="1" ht="14.5" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -480,7 +632,7 @@
     </row>
     <row r="2" ht="14.5" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="B2">
         <v>1</v>
